--- a/lib/carin_for_blue_button_test_kit/requirements/hl7.fhir.us.carin-bb_2.0.0_reqs.xlsx
+++ b/lib/carin_for_blue_button_test_kit/requirements/hl7.fhir.us.carin-bb_2.0.0_reqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre.sharepoint.com/sites/Inferno/Shared Documents/Testing and Development/Carin 4 BB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/carin-for-blue-button-test-kit/lib/carin_for_blue_button_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="564" documentId="8_{CDCC12FE-D34A-2C4D-8CA4-7A75B92A28C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44ACAA98-0F6A-F449-8263-7CBA1E7326C0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F021787C-016D-194C-9DF2-4E01E7892009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32220" yWindow="-6540" windowWidth="32080" windowHeight="28300" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="456">
   <si>
     <r>
       <rPr>
@@ -2500,9 +2500,6 @@
     <t>https://hl7.org/fhir/us/carin-bb/STU2/</t>
   </si>
   <si>
-    <t>COMPUTABLE REQUIREMENTS TBD</t>
-  </si>
-  <si>
     <t>.adjudication.amount...:  Eligible amount = submitted amount - the noncovered amount - discount.  The subscriber pays the member liability = deductible + coinsurance + copay + noncovered.  (part of the member liability may have already been paid to the provider as paidbypatient). The eligible amount - the member liability is the payment amount to the provider (paidtoprovider) or the subscriber (paidtopatient)</t>
   </si>
   <si>
@@ -2824,6 +2821,9 @@
   </si>
   <si>
     <t>OUT OF SCOPE</t>
+  </si>
+  <si>
+    <t>COMPUTABLE REQUIREMENTS</t>
   </si>
 </sst>
 </file>
@@ -3839,10 +3839,10 @@
   <dimension ref="A1:AK198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B150" sqref="B150"/>
+      <selection pane="bottomRight" activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4103,7 +4103,7 @@
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
     </row>
-    <row r="4" spans="1:35" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -14357,7 +14357,10 @@
         <v>416</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>417</v>
+        <v>455</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>47</v>
@@ -14378,7 +14381,7 @@
         <v>315</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>37</v>
@@ -14543,7 +14546,7 @@
         <v>366</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>37</v>
@@ -14650,10 +14653,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>37</v>
@@ -14705,7 +14708,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>365</v>
@@ -14875,7 +14878,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B1" s="56"/>
     </row>
@@ -14885,95 +14888,95 @@
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" t="s">
         <v>421</v>
-      </c>
-      <c r="B3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>423</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>441</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>416</v>
@@ -15008,19 +15011,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>446</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -15028,13 +15031,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>449</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -15042,13 +15045,13 @@
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>449</v>
-      </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E3" s="42">
         <v>45547</v>
@@ -15059,16 +15062,16 @@
         <v>0.2</v>
       </c>
       <c r="B4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>449</v>
-      </c>
       <c r="D4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>452</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -15093,7 +15096,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -15129,7 +15132,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -15166,15 +15169,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -15428,6 +15422,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
@@ -15447,14 +15450,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CED2D5FA-73BD-42FD-B9AF-DEC4E1FFDC53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15472,4 +15467,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>